--- a/DATA_goal/Junction_Flooding_308.xlsx
+++ b/DATA_goal/Junction_Flooding_308.xlsx
@@ -451,27 +451,27 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -759,103 +759,103 @@
         <v>44989.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>9.5</v>
+        <v>95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44989.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.59</v>
+        <v>45.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.83</v>
+        <v>38.35</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.36</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.99</v>
+        <v>59.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.41</v>
+        <v>244.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.57</v>
+        <v>45.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.11</v>
+        <v>31.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.01</v>
+        <v>30.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.52</v>
+        <v>55.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44989.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.88</v>
+        <v>28.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.98</v>
+        <v>89.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_308.xlsx
+++ b/DATA_goal/Junction_Flooding_308.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,40 +759,40 @@
         <v>44989.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.16</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.19</v>
+        <v>6.193</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.17</v>
+        <v>16.171</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.34</v>
+        <v>6.336</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.5</v>
+        <v>18.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.962</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.57</v>
+        <v>4.573</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.24</v>
+        <v>7.238</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.42</v>
+        <v>8.420999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.928</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.08</v>
@@ -801,61 +801,61 @@
         <v>6.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.366</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.355</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95</v>
+        <v>94.996</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.91</v>
+        <v>17.909</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.98</v>
+        <v>5.982</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.28</v>
+        <v>6.284</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.478</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.65</v>
+        <v>9.651</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.414</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.17</v>
+        <v>5.173</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.81</v>
+        <v>5.811</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.17</v>
+        <v>17.174</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.844</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.44</v>
+        <v>7.443</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44989.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.86</v>
+        <v>20.856</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.68</v>
+        <v>15.683</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.94</v>
+        <v>45.935</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.35</v>
+        <v>38.345</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.36</v>
+        <v>16.358</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.88</v>
+        <v>59.881</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.3</v>
+        <v>25.297</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.47</v>
+        <v>11.472</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.25</v>
+        <v>17.254</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.98</v>
+        <v>18.978</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>19.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.85</v>
+        <v>5.853</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.35</v>
+        <v>16.352</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.56</v>
+        <v>23.561</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.577</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.15</v>
+        <v>244.149</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>45.74</v>
+        <v>45.738</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>15.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.1</v>
+        <v>31.097</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.19</v>
+        <v>16.187</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.55</v>
+        <v>2.546</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.07</v>
+        <v>30.068</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.45</v>
+        <v>13.448</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.06</v>
+        <v>12.056</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>14.06</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.98</v>
+        <v>19.982</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>55.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.92</v>
+        <v>8.917999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.85</v>
+        <v>18.854</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44989.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.44</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_308.xlsx
+++ b/DATA_goal/Junction_Flooding_308.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44989.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.97</v>
+        <v>7.969</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.99</v>
+        <v>5.986</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.74</v>
+        <v>17.742</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.91</v>
+        <v>14.908</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.23</v>
+        <v>6.232</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.81</v>
+        <v>28.806</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>9.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.46</v>
+        <v>4.461</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.68</v>
+        <v>6.676</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.51</v>
+        <v>7.505</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.53</v>
+        <v>7.531</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.138999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.22</v>
+        <v>5.219</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.77</v>
+        <v>89.76900000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.72</v>
+        <v>17.716</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.75</v>
+        <v>5.752</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.1</v>
+        <v>12.101</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.19</v>
+        <v>6.191</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.61</v>
+        <v>13.613</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.19</v>
+        <v>5.191</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.74</v>
+        <v>4.742</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.5</v>
+        <v>5.499</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.9</v>
+        <v>7.899</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27</v>
+        <v>27.004</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.53</v>
+        <v>3.526</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.2</v>
+        <v>7.203</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44989.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.76</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.44</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_308.xlsx
+++ b/DATA_goal/Junction_Flooding_308.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44989.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.969</v>
+        <v>7.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.986</v>
+        <v>5.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.742</v>
+        <v>17.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.908</v>
+        <v>14.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.232</v>
+        <v>6.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.806</v>
+        <v>28.81</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>9.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.461</v>
+        <v>4.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.676</v>
+        <v>6.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.505</v>
+        <v>7.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.531</v>
+        <v>7.53</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.243</v>
+        <v>6.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.138999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.219</v>
+        <v>5.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.76900000000001</v>
+        <v>89.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.716</v>
+        <v>17.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.752</v>
+        <v>5.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.101</v>
+        <v>12.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.191</v>
+        <v>6.19</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.613</v>
+        <v>13.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.191</v>
+        <v>5.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.742</v>
+        <v>4.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.499</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.899</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.004</v>
+        <v>27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.526</v>
+        <v>3.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.203</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44989.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.44</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
